--- a/target/test-classes/inputData/Data.xlsx
+++ b/target/test-classes/inputData/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaiq\eclipse-workspace\com.eagles.datadriven.framework\src\test\resources\inputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaiq\eclipse-workspace\com.datadriven.hawks\src\test\resources\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7C54A8-B24F-45A8-A0BC-1E997C827D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A584651D-43E2-43C7-8FB2-E32AE6CCDD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,8 +66,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,94 +350,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6E8424-6FA1-4C5F-8DD1-20E60EA41288}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
